--- a/zadaci_prezentacija.xlsx
+++ b/zadaci_prezentacija.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMF\Desktop\Diplomski-materijali 1.god\2.sem\Metodika nastave informatike\Metodicka praksa\Usporedba podataka i odabir rjesenja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMF\Documents\Github\ExcelZadaci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5EABF3-FA94-4B2B-B047-5F7494231AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F38E6D-3438-4410-BBEF-D0B6D469E3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="208">
   <si>
     <t>stories</t>
   </si>
@@ -848,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -870,9 +870,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -898,18 +895,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -919,6 +904,18 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperveza" xfId="1" builtinId="8"/>
@@ -5501,10 +5498,10 @@
       <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5515,14 +5512,14 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <v>4</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>4</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="39"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -5531,14 +5528,14 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>8</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -5547,14 +5544,14 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>7</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>12</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="39"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -5563,30 +5560,30 @@
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>20</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>0.69</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>10</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>0.69</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -5595,14 +5592,14 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>3</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>10</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -5611,14 +5608,14 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>5</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>6</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="39"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -5627,14 +5624,14 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>3</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>6</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -5643,14 +5640,14 @@
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>2</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>30</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -5659,14 +5656,14 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="32">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="C11" s="31">
+        <v>1</v>
+      </c>
+      <c r="D11" s="31">
         <v>40</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -5675,85 +5672,85 @@
       <c r="B12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>2</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>60</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="37">
         <v>500</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="D17" s="29" t="s">
+      <c r="B17" s="20"/>
+      <c r="D17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="D18" s="25" t="s">
+      <c r="B18" s="20"/>
+      <c r="D18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="D19" s="25" t="s">
+      <c r="B19" s="20"/>
+      <c r="D19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="D20" s="25" t="s">
+      <c r="B20" s="20"/>
+      <c r="D20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="11"/>
@@ -5770,3110 +5767,3438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88B5397-0812-4023-85A6-D0431032D459}">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:O281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="7">
+        <v>2015</v>
+      </c>
+      <c r="L1" s="7">
+        <v>2016</v>
+      </c>
+      <c r="M1" s="7">
+        <v>2017</v>
+      </c>
+      <c r="N1" s="7">
+        <v>2018</v>
+      </c>
+      <c r="O1" s="7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>43911</v>
       </c>
       <c r="C2" s="5">
         <v>0.85293981481481485</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="J2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>43832</v>
       </c>
       <c r="C3" s="5">
         <v>0.37597222222222221</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>43831</v>
       </c>
       <c r="C4" s="5">
         <v>0.82887731481481486</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>43825</v>
       </c>
       <c r="C5" s="5">
         <v>0.3835069444444445</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>43825</v>
       </c>
       <c r="C6" s="5">
         <v>0.48937499999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>43824</v>
       </c>
       <c r="C7" s="5">
         <v>0.46429398148148149</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>43817</v>
       </c>
       <c r="C8" s="5">
         <v>0.42288194444444444</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>43809</v>
       </c>
       <c r="C9" s="5">
         <v>0.34670138888888885</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>43806</v>
       </c>
       <c r="C10" s="5">
         <v>0.55680555555555555</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>43792</v>
       </c>
       <c r="C11" s="5">
         <v>0.90457175925925926</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>43791</v>
       </c>
       <c r="C12" s="5">
         <v>0.79517361111111118</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>43781</v>
       </c>
       <c r="C13" s="5">
         <v>0.8774074074074073</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>43781</v>
       </c>
       <c r="C14" s="5">
         <v>0.65524305555555562</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>43778</v>
       </c>
       <c r="C15" s="5">
         <v>0.87078703703703697</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>43778</v>
       </c>
       <c r="C16" s="5">
         <v>0.87078703703703697</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>43778</v>
       </c>
       <c r="C17" s="5">
         <v>0.87355324074074081</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>43737</v>
       </c>
       <c r="C18" s="5">
         <v>0.38119212962962962</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>43737</v>
       </c>
       <c r="C19" s="5">
         <v>0.38119212962962962</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>43736</v>
       </c>
       <c r="C20" s="5">
         <v>0.84785879629629635</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>43736</v>
       </c>
       <c r="C21" s="5">
         <v>0.84785879629629635</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>43736</v>
       </c>
       <c r="C22" s="5">
         <v>0.84785879629629635</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>43736</v>
       </c>
       <c r="C23" s="5">
         <v>0.84785879629629635</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>43651</v>
       </c>
       <c r="C24" s="5">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>43576</v>
       </c>
       <c r="C25" s="5">
         <v>0.33173611111111112</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>43569</v>
       </c>
       <c r="C26" s="5">
         <v>0.87972222222222218</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>43569</v>
       </c>
       <c r="C27" s="5">
         <v>0.87972222222222218</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>43569</v>
       </c>
       <c r="C28" s="5">
         <v>0.42850694444444448</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>43569</v>
       </c>
       <c r="C29" s="5">
         <v>0.42850694444444448</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>43569</v>
       </c>
       <c r="C30" s="5">
         <v>0.42850694444444448</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>43569</v>
       </c>
       <c r="C31" s="5">
         <v>0.42850694444444448</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <v>43568</v>
       </c>
       <c r="C32" s="5">
         <v>0.60322916666666659</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <v>43562</v>
       </c>
       <c r="C33" s="5">
         <v>0.35695601851851855</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>43562</v>
       </c>
       <c r="C34" s="5">
         <v>0.35695601851851855</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>43561</v>
       </c>
       <c r="C35" s="5">
         <v>0.36280092592592594</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>43551</v>
       </c>
       <c r="C36" s="5">
         <v>0.87498842592592585</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>43551</v>
       </c>
       <c r="C37" s="5">
         <v>0.87498842592592585</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>43540</v>
       </c>
       <c r="C38" s="5">
         <v>0.49835648148148143</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="15">
         <v>43540</v>
       </c>
       <c r="C39" s="5">
         <v>0.49835648148148143</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <v>43525</v>
       </c>
       <c r="C40" s="5">
         <v>0.8181250000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>43524</v>
       </c>
       <c r="C41" s="5">
         <v>0.4220949074074074</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>43524</v>
       </c>
       <c r="C42" s="5">
         <v>0.4220949074074074</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="15">
         <v>43523</v>
       </c>
       <c r="C43" s="5">
         <v>0.77719907407407407</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="15">
         <v>43523</v>
       </c>
       <c r="C44" s="5">
         <v>0.77719907407407407</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="15">
         <v>43523</v>
       </c>
       <c r="C45" s="5">
         <v>0.77719907407407407</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <v>43523</v>
       </c>
       <c r="C46" s="5">
         <v>0.77719907407407407</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="15">
         <v>43523</v>
       </c>
       <c r="C47" s="5">
         <v>0.77719907407407407</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="15">
         <v>43522</v>
       </c>
       <c r="C48" s="5">
         <v>0.74214120370370373</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>43519</v>
       </c>
       <c r="C49" s="5">
         <v>0.4195949074074074</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>43482</v>
       </c>
       <c r="C50" s="5">
         <v>0.33704861111111112</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>43469</v>
       </c>
       <c r="C51" s="5">
         <v>0.46357638888888886</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="15">
         <v>43468</v>
       </c>
       <c r="C52" s="5">
         <v>0.86070601851851858</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="15">
         <v>43468</v>
       </c>
       <c r="C53" s="5">
         <v>0.67090277777777774</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <v>43467</v>
       </c>
       <c r="C54" s="5">
         <v>6.3657407407407402E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="15">
         <v>43459</v>
       </c>
       <c r="C55" s="5">
         <v>0.36736111111111108</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <v>43458</v>
       </c>
       <c r="C56" s="5">
         <v>0.47255787037037034</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>43454</v>
       </c>
       <c r="C57" s="5">
         <v>0.54219907407407408</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>43451</v>
       </c>
       <c r="C58" s="5">
         <v>0.55174768518518513</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>43450</v>
       </c>
       <c r="C59" s="5">
         <v>0.42682870370370374</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="15">
         <v>43400</v>
       </c>
       <c r="C60" s="5">
         <v>0.93501157407407398</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>43396</v>
       </c>
       <c r="C61" s="5">
         <v>0.32643518518518516</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="15">
         <v>43359</v>
       </c>
       <c r="C62" s="5">
         <v>0.36921296296296297</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="15">
         <v>43358</v>
       </c>
       <c r="C63" s="5">
         <v>0.3477662037037037</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <v>43347</v>
       </c>
       <c r="C64" s="5">
         <v>0.37134259259259261</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="15">
         <v>43321</v>
       </c>
       <c r="C65" s="5">
         <v>0.27979166666666666</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>43320</v>
       </c>
       <c r="C66" s="5">
         <v>0.37894675925925925</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="15">
         <v>43293</v>
       </c>
       <c r="C67" s="5">
         <v>0.676875</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>43293</v>
       </c>
       <c r="C68" s="5">
         <v>0.57379629629629625</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="15">
         <v>43285</v>
       </c>
       <c r="C69" s="5">
         <v>0.41565972222222225</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>43284</v>
       </c>
       <c r="C70" s="5">
         <v>0.54454861111111108</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>43274</v>
       </c>
       <c r="C71" s="5">
         <v>0.26406250000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>43274</v>
       </c>
       <c r="C72" s="5">
         <v>0.26403935185185184</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="15">
         <v>43273</v>
       </c>
       <c r="C73" s="5">
         <v>0.83081018518518512</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="15">
         <v>43273</v>
       </c>
       <c r="C74" s="5">
         <v>0.83078703703703705</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>43273</v>
       </c>
       <c r="C75" s="5">
         <v>0.48260416666666667</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="15">
         <v>43253</v>
       </c>
       <c r="C76" s="5">
         <v>0.65872685185185187</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>43235</v>
       </c>
       <c r="C77" s="5">
         <v>0.35631944444444441</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="15">
         <v>43230</v>
       </c>
       <c r="C78" s="5">
         <v>0.38369212962962962</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B79" s="16">
+      <c r="B79" s="15">
         <v>43229</v>
       </c>
       <c r="C79" s="5">
         <v>0.27211805555555557</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="15">
         <v>43228</v>
       </c>
       <c r="C80" s="5">
         <v>0.80495370370370367</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="15">
         <v>43228</v>
       </c>
       <c r="C81" s="5">
         <v>0.80494212962962963</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="15">
         <v>43228</v>
       </c>
       <c r="C82" s="5">
         <v>0.69284722222222228</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="15">
         <v>43212</v>
       </c>
       <c r="C83" s="5">
         <v>0.54836805555555557</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="15">
         <v>43212</v>
       </c>
       <c r="C84" s="5">
         <v>0.54835648148148153</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="15">
         <v>43212</v>
       </c>
       <c r="C85" s="5">
         <v>0.54834490740740738</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="15">
         <v>43212</v>
       </c>
       <c r="C86" s="5">
         <v>0.54832175925925919</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="15">
         <v>43212</v>
       </c>
       <c r="C87" s="5">
         <v>0.43662037037037038</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="15">
         <v>43195</v>
       </c>
       <c r="C88" s="5">
         <v>0.35228009259259263</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="15">
         <v>43195</v>
       </c>
       <c r="C89" s="5">
         <v>0.5723611111111111</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="15">
         <v>43195</v>
       </c>
       <c r="C90" s="5">
         <v>0.57229166666666664</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="15">
         <v>43193</v>
       </c>
       <c r="C91" s="5">
         <v>0.24523148148148147</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>43192</v>
       </c>
       <c r="C92" s="5">
         <v>0.61863425925925919</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>43191</v>
       </c>
       <c r="C93" s="5">
         <v>0.64826388888888886</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="15">
         <v>43163</v>
       </c>
       <c r="C94" s="5">
         <v>0.29994212962962963</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="15">
         <v>43163</v>
       </c>
       <c r="C95" s="5">
         <v>0.68019675925925915</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="15">
         <v>43163</v>
       </c>
       <c r="C96" s="5">
         <v>0.68017361111111108</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="15">
         <v>43159</v>
       </c>
       <c r="C97" s="5">
         <v>0.87104166666666671</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="15">
         <v>43151</v>
       </c>
       <c r="C98" s="5">
         <v>0.73553240740740744</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="15">
         <v>43149</v>
       </c>
       <c r="C99" s="5">
         <v>0.4065509259259259</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="15">
         <v>43148</v>
       </c>
       <c r="C100" s="5">
         <v>0.72346064814814814</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="15">
         <v>43148</v>
       </c>
       <c r="C101" s="5">
         <v>0.85704861111111119</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="15">
         <v>43148</v>
       </c>
       <c r="C102" s="5">
         <v>0.72827546296296297</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="15">
         <v>43148</v>
       </c>
       <c r="C103" s="5">
         <v>0.72825231481481489</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="15">
         <v>43145</v>
       </c>
       <c r="C104" s="5">
         <v>0.81678240740740737</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="15">
         <v>43145</v>
       </c>
       <c r="C105" s="5">
         <v>0.6290162037037037</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="15">
         <v>43145</v>
       </c>
       <c r="C106" s="5">
         <v>0.62900462962962966</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="16">
+      <c r="B107" s="15">
         <v>43145</v>
       </c>
       <c r="C107" s="5">
         <v>0.62899305555555551</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B108" s="16">
+      <c r="B108" s="15">
         <v>43145</v>
       </c>
       <c r="C108" s="5">
         <v>0.62898148148148147</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="16">
+      <c r="B109" s="15">
         <v>43132</v>
       </c>
       <c r="C109" s="5">
         <v>0.95834490740740741</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="15">
         <v>43132</v>
       </c>
       <c r="C110" s="5">
         <v>0.95833333333333337</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="16">
+      <c r="B111" s="15">
         <v>43132</v>
       </c>
       <c r="C111" s="5">
         <v>0.95832175925925922</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="15">
         <v>43102</v>
       </c>
       <c r="C112" s="5">
         <v>0.76223379629629628</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="15">
         <v>43102</v>
       </c>
       <c r="C113" s="5">
         <v>0.76222222222222225</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B114" s="16">
+      <c r="B114" s="15">
         <v>43102</v>
       </c>
       <c r="C114" s="5">
         <v>0.62968750000000007</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="15">
         <v>43102</v>
       </c>
       <c r="C115" s="5">
         <v>0.62967592592592592</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="15">
         <v>43098</v>
       </c>
       <c r="C116" s="5">
         <v>0.79962962962962969</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="15">
         <v>43098</v>
       </c>
       <c r="C117" s="5">
         <v>0.7996064814814815</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="15">
         <v>43096</v>
       </c>
       <c r="C118" s="5">
         <v>0.55081018518518521</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="16">
+      <c r="B119" s="15">
         <v>43094</v>
       </c>
       <c r="C119" s="5">
         <v>0.37265046296296295</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="15">
         <v>43092</v>
       </c>
       <c r="C120" s="5">
         <v>0.45074074074074072</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="15">
         <v>43091</v>
       </c>
       <c r="C121" s="5">
         <v>0.87193287037037026</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="15">
         <v>43091</v>
       </c>
       <c r="C122" s="5">
         <v>0.48831018518518521</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="15">
         <v>43086</v>
       </c>
       <c r="C123" s="5">
         <v>0.4997685185185185</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="15">
         <v>43060</v>
       </c>
       <c r="C124" s="5">
         <v>0.68203703703703711</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="15">
         <v>43060</v>
       </c>
       <c r="C125" s="5">
         <v>0.68202546296296296</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="15">
         <v>43059</v>
       </c>
       <c r="C126" s="5">
         <v>0.65222222222222226</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="15">
         <v>43052</v>
       </c>
       <c r="C127" s="5">
         <v>0.50758101851851845</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="15">
         <v>43040</v>
       </c>
       <c r="C128" s="5">
         <v>0.85508101851851848</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="15">
         <v>43039</v>
       </c>
       <c r="C129" s="5">
         <v>0.45637731481481486</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="15">
         <v>43001</v>
       </c>
       <c r="C130" s="5">
         <v>0.55571759259259257</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="16">
+      <c r="B131" s="15">
         <v>43001</v>
       </c>
       <c r="C131" s="5">
         <v>0.55570601851851853</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="15">
         <v>42997</v>
       </c>
       <c r="C132" s="5">
         <v>0.73855324074074069</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="15">
         <v>42990</v>
       </c>
       <c r="C133" s="5">
         <v>0.87611111111111117</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>42990</v>
       </c>
       <c r="C134" s="5">
         <v>0.67586805555555562</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="16">
+      <c r="B135" s="15">
         <v>42983</v>
       </c>
       <c r="C135" s="5">
         <v>0.52149305555555558</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="16">
+      <c r="B136" s="15">
         <v>42978</v>
       </c>
       <c r="C136" s="5">
         <v>0.76686342592592593</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="16">
+      <c r="B137" s="15">
         <v>42978</v>
       </c>
       <c r="C137" s="5">
         <v>0.76681712962962967</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="15">
         <v>42978</v>
       </c>
       <c r="C138" s="5">
         <v>0.76674768518518521</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="15">
         <v>42970</v>
       </c>
       <c r="C139" s="5">
         <v>0.68670138888888888</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="15">
         <v>42967</v>
       </c>
       <c r="C140" s="5">
         <v>0.79883101851851857</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" s="2"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="15">
         <v>42967</v>
       </c>
       <c r="C141" s="5">
         <v>0.5626620370370371</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" s="2"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="15">
         <v>42966</v>
       </c>
       <c r="C142" s="5">
         <v>0.36035879629629625</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" s="2"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="15">
         <v>42966</v>
       </c>
       <c r="C143" s="5">
         <v>0.36032407407407407</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B144" s="16">
+      <c r="B144" s="15">
         <v>42966</v>
       </c>
       <c r="C144" s="5">
         <v>0.36027777777777775</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="15">
         <v>42966</v>
       </c>
       <c r="C145" s="5">
         <v>0.36024305555555558</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="15">
         <v>42966</v>
       </c>
       <c r="C146" s="5">
         <v>0.3602083333333333</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="15">
         <v>42962</v>
       </c>
       <c r="C147" s="5">
         <v>0.32072916666666668</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="15">
         <v>42961</v>
       </c>
       <c r="C148" s="5">
         <v>0.6033680555555555</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="15">
         <v>42960</v>
       </c>
       <c r="C149" s="5">
         <v>0.95894675925925921</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="15">
         <v>42960</v>
       </c>
       <c r="C150" s="5">
         <v>0.95892361111111113</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="15">
         <v>42960</v>
       </c>
       <c r="C151" s="5">
         <v>0.95888888888888879</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B152" s="16">
+      <c r="B152" s="15">
         <v>42960</v>
       </c>
       <c r="C152" s="5">
         <v>0.84226851851851858</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B153" s="16">
+      <c r="B153" s="15">
         <v>42960</v>
       </c>
       <c r="C153" s="5">
         <v>0.33627314814814818</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B154" s="16">
+      <c r="B154" s="15">
         <v>42959</v>
       </c>
       <c r="C154" s="5">
         <v>0.72192129629629631</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="16">
+      <c r="B155" s="15">
         <v>42959</v>
       </c>
       <c r="C155" s="5">
         <v>0.63359953703703698</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B156" s="16">
+      <c r="B156" s="15">
         <v>42950</v>
       </c>
       <c r="C156" s="5">
         <v>0.80333333333333334</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B157" s="16">
+      <c r="B157" s="15">
         <v>42947</v>
       </c>
       <c r="C157" s="5">
         <v>0.64915509259259252</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B158" s="16">
+      <c r="B158" s="15">
         <v>42941</v>
       </c>
       <c r="C158" s="5">
         <v>0.35364583333333338</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="16">
+      <c r="B159" s="15">
         <v>42940</v>
       </c>
       <c r="C159" s="5">
         <v>0.65824074074074079</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160" s="15">
         <v>42939</v>
       </c>
       <c r="C160" s="5">
         <v>0.90516203703703713</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B161" s="16">
+      <c r="B161" s="15">
         <v>42935</v>
       </c>
       <c r="C161" s="5">
         <v>0.86447916666666658</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="15">
         <v>42935</v>
       </c>
       <c r="C162" s="5">
         <v>0.34153935185185186</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B163" s="16">
+      <c r="B163" s="15">
         <v>42934</v>
       </c>
       <c r="C163" s="5">
         <v>0.90848379629629628</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="16">
+      <c r="B164" s="15">
         <v>42932</v>
       </c>
       <c r="C164" s="5">
         <v>0.6337962962962963</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B165" s="16">
+      <c r="B165" s="15">
         <v>42931</v>
       </c>
       <c r="C165" s="5">
         <v>0.50082175925925931</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="16">
+      <c r="B166" s="15">
         <v>42928</v>
       </c>
       <c r="C166" s="5">
         <v>0.49025462962962968</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B167" s="16">
+      <c r="B167" s="15">
         <v>42918</v>
       </c>
       <c r="C167" s="5">
         <v>0.59305555555555556</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="16">
+      <c r="B168" s="15">
         <v>42917</v>
       </c>
       <c r="C168" s="5">
         <v>0.85883101851851851</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="16">
+      <c r="B169" s="15">
         <v>42916</v>
       </c>
       <c r="C169" s="5">
         <v>0.47021990740740738</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="16">
+      <c r="B170" s="15">
         <v>42915</v>
       </c>
       <c r="C170" s="5">
         <v>0.65946759259259258</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B171" s="16">
+      <c r="B171" s="15">
         <v>42913</v>
       </c>
       <c r="C171" s="5">
         <v>0.74642361111111111</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B172" s="16">
+      <c r="B172" s="15">
         <v>42912</v>
       </c>
       <c r="C172" s="5">
         <v>0.91410879629629627</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B173" s="16">
+      <c r="B173" s="15">
         <v>42895</v>
       </c>
       <c r="C173" s="5">
         <v>0.55371527777777774</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B174" s="16">
+      <c r="B174" s="15">
         <v>42894</v>
       </c>
       <c r="C174" s="5">
         <v>0.84392361111111114</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B175" s="16">
+      <c r="B175" s="15">
         <v>42884</v>
       </c>
       <c r="C175" s="5">
         <v>0.45394675925925926</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176" s="15">
         <v>42858</v>
       </c>
       <c r="C176" s="5">
         <v>0.66342592592592597</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B177" s="16">
+      <c r="B177" s="15">
         <v>42857</v>
       </c>
       <c r="C177" s="5">
         <v>0.4950694444444444</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B178" s="15">
         <v>42854</v>
       </c>
       <c r="C178" s="5">
         <v>0.91361111111111104</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B179" s="16">
+      <c r="B179" s="15">
         <v>42854</v>
       </c>
       <c r="C179" s="5">
         <v>0.69444444444444453</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180" s="15">
         <v>42853</v>
       </c>
       <c r="C180" s="5">
         <v>0.76901620370370372</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B181" s="16">
+      <c r="B181" s="15">
         <v>42853</v>
       </c>
       <c r="C181" s="5">
         <v>0.36414351851851851</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="16">
+      <c r="B182" s="15">
         <v>42841</v>
       </c>
       <c r="C182" s="5">
         <v>0.62737268518518519</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B183" s="16">
+      <c r="B183" s="15">
         <v>42841</v>
       </c>
       <c r="C183" s="5">
         <v>0.34944444444444445</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B184" s="16">
+      <c r="B184" s="15">
         <v>42834</v>
       </c>
       <c r="C184" s="5">
         <v>0.48424768518518518</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B185" s="15">
         <v>42826</v>
       </c>
       <c r="C185" s="5">
         <v>0.71418981481481481</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186" s="15">
         <v>42824</v>
       </c>
       <c r="C186" s="5">
         <v>0.83907407407407408</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="16">
+      <c r="B187" s="15">
         <v>42824</v>
       </c>
       <c r="C187" s="5">
         <v>0.83905092592592589</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188" s="15">
         <v>42803</v>
       </c>
       <c r="C188" s="5">
         <v>0.89112268518518523</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B189" s="15">
         <v>42803</v>
       </c>
       <c r="C189" s="5">
         <v>4.5370370370370365E-3</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="15">
         <v>42802</v>
       </c>
       <c r="C190" s="5">
         <v>0.64333333333333331</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B191" s="16">
+      <c r="B191" s="15">
         <v>42776</v>
       </c>
       <c r="C191" s="5">
         <v>0.8297106481481481</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B192" s="15">
         <v>42773</v>
       </c>
       <c r="C192" s="5">
         <v>0.91829861111111111</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B193" s="16">
+      <c r="B193" s="15">
         <v>42757</v>
       </c>
       <c r="C193" s="5">
         <v>0.5339814814814815</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B194" s="15">
         <v>42742</v>
       </c>
       <c r="C194" s="5">
         <v>0.89670138888888884</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B195" s="16">
+      <c r="B195" s="15">
         <v>42741</v>
       </c>
       <c r="C195" s="5">
         <v>0.70201388888888883</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B196" s="15">
         <v>42740</v>
       </c>
       <c r="C196" s="5">
         <v>0.9786921296296297</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B197" s="15">
         <v>42739</v>
       </c>
       <c r="C197" s="5">
         <v>0.99671296296296286</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198" s="15">
         <v>42739</v>
       </c>
       <c r="C198" s="5">
         <v>0.6912152777777778</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B199" s="16">
+      <c r="B199" s="15">
         <v>42738</v>
       </c>
       <c r="C199" s="5">
         <v>0.99224537037037042</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B200" s="15">
         <v>42736</v>
       </c>
       <c r="C200" s="5">
         <v>0.59519675925925919</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B201" s="16">
+      <c r="B201" s="15">
         <v>42731</v>
       </c>
       <c r="C201" s="5">
         <v>9.1550925925925931E-3</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202" s="15">
         <v>42709</v>
       </c>
       <c r="C202" s="5">
         <v>0.85890046296296296</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B203" s="16">
+      <c r="B203" s="15">
         <v>42709</v>
       </c>
       <c r="C203" s="5">
         <v>0.38309027777777777</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204" s="15">
         <v>42708</v>
       </c>
       <c r="C204" s="5">
         <v>0.75534722222222228</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B205" s="15">
         <v>42708</v>
       </c>
       <c r="C205" s="5">
         <v>0.6702662037037036</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B206" s="16">
+      <c r="B206" s="15">
         <v>42708</v>
       </c>
       <c r="C206" s="5">
         <v>0.57939814814814816</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B207" s="16">
+      <c r="B207" s="15">
         <v>42700</v>
       </c>
       <c r="C207" s="5">
         <v>0.97550925925925924</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B208" s="16">
+      <c r="B208" s="15">
         <v>42673</v>
       </c>
       <c r="C208" s="5">
         <v>0.90449074074074076</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B209" s="16">
+      <c r="B209" s="15">
         <v>42672</v>
       </c>
       <c r="C209" s="5">
         <v>0.96373842592592596</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="15">
         <v>42637</v>
       </c>
       <c r="C210" s="5">
         <v>0.93336805555555558</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211" s="15">
         <v>42637</v>
       </c>
       <c r="C211" s="5">
         <v>0.93230324074074078</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="15">
         <v>42637</v>
       </c>
       <c r="C212" s="5">
         <v>0.92980324074074072</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213" s="15">
         <v>42616</v>
       </c>
       <c r="C213" s="5">
         <v>0.97341435185185177</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="16">
+      <c r="B214" s="15">
         <v>42613</v>
       </c>
       <c r="C214" s="5">
         <v>0.92607638888888888</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B215" s="16">
+      <c r="B215" s="15">
         <v>42612</v>
       </c>
       <c r="C215" s="5">
         <v>0.38895833333333335</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B216" s="16">
+      <c r="B216" s="15">
         <v>42611</v>
       </c>
       <c r="C216" s="5">
         <v>0.93686342592592586</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217" s="15">
         <v>42611</v>
       </c>
       <c r="C217" s="5">
         <v>0.93194444444444446</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="15">
         <v>42608</v>
       </c>
       <c r="C218" s="5">
         <v>1.6400462962962964E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219" s="15">
         <v>42607</v>
       </c>
       <c r="C219" s="5">
         <v>0.96813657407407405</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="15">
         <v>42601</v>
       </c>
       <c r="C220" s="5">
         <v>0.93725694444444441</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221" s="15">
         <v>42601</v>
       </c>
       <c r="C221" s="5">
         <v>0.93327546296296304</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="15">
         <v>42601</v>
       </c>
       <c r="C222" s="5">
         <v>0.92729166666666663</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223" s="15">
         <v>42600</v>
       </c>
       <c r="C223" s="5">
         <v>0.93234953703703705</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B224" s="16">
+      <c r="B224" s="15">
         <v>42599</v>
       </c>
       <c r="C224" s="5">
         <v>0.92829861111111101</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B225" s="16">
+      <c r="B225" s="15">
         <v>42595</v>
       </c>
       <c r="C225" s="5">
         <v>0.90141203703703709</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="15">
         <v>42587</v>
       </c>
       <c r="C226" s="5">
         <v>0.96614583333333337</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="15">
         <v>42587</v>
       </c>
       <c r="C227" s="5">
         <v>0.73249999999999993</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B228" s="16">
+      <c r="B228" s="15">
         <v>42587</v>
       </c>
       <c r="C228" s="5">
         <v>0.28493055555555552</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229" s="15">
         <v>42586</v>
       </c>
       <c r="C229" s="5">
         <v>0.66120370370370374</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="15">
         <v>42585</v>
       </c>
       <c r="C230" s="5">
         <v>0.63559027777777777</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230" s="2"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231" s="15">
         <v>42585</v>
       </c>
       <c r="C231" s="5">
         <v>0.4223263888888889</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="16">
+      <c r="B232" s="15">
         <v>42584</v>
       </c>
       <c r="C232" s="5">
         <v>0.93100694444444443</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232" s="2"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B233" s="16">
+      <c r="B233" s="15">
         <v>42583</v>
       </c>
       <c r="C233" s="5">
         <v>0.35031250000000003</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B234" s="16">
+      <c r="B234" s="15">
         <v>42581</v>
       </c>
       <c r="C234" s="5">
         <v>0.54791666666666672</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234" s="2"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="16">
+      <c r="B235" s="15">
         <v>42577</v>
       </c>
       <c r="C235" s="5">
         <v>0.39685185185185184</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B236" s="16">
+      <c r="B236" s="15">
         <v>42576</v>
       </c>
       <c r="C236" s="5">
         <v>0.58466435185185184</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B237" s="16">
+      <c r="B237" s="15">
         <v>42575</v>
       </c>
       <c r="C237" s="5">
         <v>0.44443287037037038</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B238" s="16">
+      <c r="B238" s="15">
         <v>42575</v>
       </c>
       <c r="C238" s="5">
         <v>0.44340277777777781</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238" s="2"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B239" s="16">
+      <c r="B239" s="15">
         <v>42562</v>
       </c>
       <c r="C239" s="5">
         <v>0.53291666666666659</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239" s="2"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B240" s="16">
+      <c r="B240" s="15">
         <v>42554</v>
       </c>
       <c r="C240" s="5">
         <v>0.75118055555555552</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240" s="2"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B241" s="16">
+      <c r="B241" s="15">
         <v>42547</v>
       </c>
       <c r="C241" s="5">
         <v>0.55064814814814811</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241" s="2"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B242" s="16">
+      <c r="B242" s="15">
         <v>42547</v>
       </c>
       <c r="C242" s="5">
         <v>0.54646990740740742</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242" s="2"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B243" s="16">
+      <c r="B243" s="15">
         <v>42524</v>
       </c>
       <c r="C243" s="5">
         <v>0.75872685185185185</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243" s="2"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B244" s="16">
+      <c r="B244" s="15">
         <v>42463</v>
       </c>
       <c r="C244" s="5">
         <v>0.30599537037037033</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244" s="2"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B245" s="16">
+      <c r="B245" s="15">
         <v>42431</v>
       </c>
       <c r="C245" s="5">
         <v>0.69142361111111106</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245" s="2"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B246" s="16">
+      <c r="B246" s="15">
         <v>42421</v>
       </c>
       <c r="C246" s="5">
         <v>0.37915509259259261</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246" s="2"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B247" s="16">
+      <c r="B247" s="15">
         <v>42420</v>
       </c>
       <c r="C247" s="5">
         <v>0.75890046296296287</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247" s="2"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B248" s="16">
+      <c r="B248" s="15">
         <v>42419</v>
       </c>
       <c r="C248" s="5">
         <v>0.60982638888888896</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248" s="2"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B249" s="16">
+      <c r="B249" s="15">
         <v>42416</v>
       </c>
       <c r="C249" s="5">
         <v>3.4027777777777784E-3</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B250" s="16">
+      <c r="B250" s="15">
         <v>42414</v>
       </c>
       <c r="C250" s="5">
         <v>0.5499074074074074</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250" s="2"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B251" s="16">
+      <c r="B251" s="15">
         <v>42414</v>
       </c>
       <c r="C251" s="5">
         <v>0.5490046296296297</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D251" s="2"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B252" s="16">
+      <c r="B252" s="15">
         <v>42414</v>
       </c>
       <c r="C252" s="5">
         <v>0.54804398148148148</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D252" s="2"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B253" s="16">
+      <c r="B253" s="15">
         <v>42414</v>
       </c>
       <c r="C253" s="5">
         <v>0.54694444444444446</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D253" s="2"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B254" s="16">
+      <c r="B254" s="15">
         <v>42414</v>
       </c>
       <c r="C254" s="5">
         <v>0.50675925925925924</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D254" s="2"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B255" s="16">
+      <c r="B255" s="15">
         <v>42414</v>
       </c>
       <c r="C255" s="5">
         <v>0.50458333333333327</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D255" s="2"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B256" s="16">
+      <c r="B256" s="15">
         <v>42414</v>
       </c>
       <c r="C256" s="5">
         <v>0.50230324074074073</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D256" s="2"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B257" s="16">
+      <c r="B257" s="15">
         <v>42414</v>
       </c>
       <c r="C257" s="5">
         <v>0.50131944444444443</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D257" s="2"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B258" s="16">
+      <c r="B258" s="15">
         <v>42414</v>
       </c>
       <c r="C258" s="5">
         <v>0.49855324074074076</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D258" s="2"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B259" s="16">
+      <c r="B259" s="15">
         <v>42414</v>
       </c>
       <c r="C259" s="5">
         <v>0.49626157407407406</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D259" s="2"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B260" s="16">
+      <c r="B260" s="15">
         <v>42414</v>
       </c>
       <c r="C260" s="5">
         <v>0.49467592592592591</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D260" s="2"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B261" s="16">
+      <c r="B261" s="15">
         <v>42414</v>
       </c>
       <c r="C261" s="5">
         <v>0.49416666666666664</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D261" s="2"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B262" s="16">
+      <c r="B262" s="15">
         <v>42414</v>
       </c>
       <c r="C262" s="5">
         <v>0.4929398148148148</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D262" s="2"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B263" s="16">
+      <c r="B263" s="15">
         <v>42414</v>
       </c>
       <c r="C263" s="5">
         <v>0.49096064814814816</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B264" s="16">
+      <c r="B264" s="15">
         <v>42414</v>
       </c>
       <c r="C264" s="5">
         <v>0.48931712962962964</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D264" s="2"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B265" s="16">
+      <c r="B265" s="15">
         <v>42414</v>
       </c>
       <c r="C265" s="5">
         <v>0.48736111111111113</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D265" s="2"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B266" s="16">
+      <c r="B266" s="15">
         <v>42410</v>
       </c>
       <c r="C266" s="5">
         <v>0.74185185185185187</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D266" s="2"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B267" s="16">
+      <c r="B267" s="15">
         <v>42407</v>
       </c>
       <c r="C267" s="5">
         <v>0.9069328703703704</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D267" s="2"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B268" s="16">
+      <c r="B268" s="15">
         <v>42407</v>
       </c>
       <c r="C268" s="5">
         <v>0.49964120370370368</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D268" s="2"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B269" s="16">
+      <c r="B269" s="15">
         <v>42396</v>
       </c>
       <c r="C269" s="5">
         <v>0.96099537037037042</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B270" s="16">
+      <c r="B270" s="15">
         <v>42395</v>
       </c>
       <c r="C270" s="5">
         <v>0.67469907407407403</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B271" s="16">
+      <c r="B271" s="15">
         <v>42386</v>
       </c>
       <c r="C271" s="5">
         <v>0.5115277777777778</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D271" s="2"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B272" s="16">
+      <c r="B272" s="15">
         <v>42385</v>
       </c>
       <c r="C272" s="5">
         <v>0.91173611111111119</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D272" s="2"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B273" s="16">
+      <c r="B273" s="15">
         <v>42385</v>
       </c>
       <c r="C273" s="5">
         <v>0.90302083333333327</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D273" s="2"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B274" s="16">
+      <c r="B274" s="15">
         <v>42367</v>
       </c>
       <c r="C274" s="5">
         <v>0.82758101851851851</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D274" s="2"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B275" s="16">
+      <c r="B275" s="15">
         <v>42367</v>
       </c>
       <c r="C275" s="5">
         <v>0.82512731481481483</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D275" s="2"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B276" s="16">
+      <c r="B276" s="15">
         <v>42367</v>
       </c>
       <c r="C276" s="5">
         <v>0.82283564814814814</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B277" s="16">
+      <c r="B277" s="15">
         <v>42347</v>
       </c>
       <c r="C277" s="5">
         <v>0.72935185185185192</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D277" s="2"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B278" s="16">
+      <c r="B278" s="15">
         <v>42347</v>
       </c>
       <c r="C278" s="5">
         <v>0.72811342592592598</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D278" s="2"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B279" s="16">
+      <c r="B279" s="15">
         <v>42347</v>
       </c>
       <c r="C279" s="5">
         <v>0.72581018518518514</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D279" s="2"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B280" s="16">
+      <c r="B280" s="15">
         <v>42347</v>
       </c>
       <c r="C280" s="5">
         <v>0.72425925925925927</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D280" s="2"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B281" s="16">
+      <c r="B281" s="15">
         <v>42347</v>
       </c>
       <c r="C281" s="5">
         <v>0.72123842592592602</v>
       </c>
+      <c r="D281" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8916,10 +9241,10 @@
       <c r="D1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8930,17 +9255,17 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>4</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>4</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="35">
         <f>C2*D2</f>
         <v>16</v>
       </c>
-      <c r="F2" s="39" t="str">
+      <c r="F2" s="34" t="str">
         <f>IF(E2&lt;$B$16, "DA", "NE")</f>
         <v>DA</v>
       </c>
@@ -8952,17 +9277,17 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>5</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>8</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="35">
         <f t="shared" ref="E3:E12" si="0">C3*D3</f>
         <v>40</v>
       </c>
-      <c r="F3" s="39" t="str">
+      <c r="F3" s="34" t="str">
         <f>IF(E3&lt;$B$16, "DA", "NE")</f>
         <v>DA</v>
       </c>
@@ -8974,17 +9299,17 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>7</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>12</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="35">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F4" s="39" t="str">
+      <c r="F4" s="34" t="str">
         <f t="shared" ref="F4:F12" si="1">IF(E4&lt;$B$16, "DA", "NE")</f>
         <v>NE</v>
       </c>
@@ -8996,17 +9321,17 @@
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>20</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0.69</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="35">
         <f t="shared" si="0"/>
         <v>13.799999999999999</v>
       </c>
-      <c r="F5" s="39" t="str">
+      <c r="F5" s="34" t="str">
         <f t="shared" si="1"/>
         <v>DA</v>
       </c>
@@ -9015,20 +9340,20 @@
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <v>10</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>0.69</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>6.8999999999999995</v>
       </c>
-      <c r="F6" s="39" t="str">
+      <c r="F6" s="34" t="str">
         <f t="shared" si="1"/>
         <v>DA</v>
       </c>
@@ -9040,17 +9365,17 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>10</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F7" s="39" t="str">
+      <c r="F7" s="34" t="str">
         <f t="shared" si="1"/>
         <v>DA</v>
       </c>
@@ -9062,17 +9387,17 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>5</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>6</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="35">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F8" s="39" t="str">
+      <c r="F8" s="34" t="str">
         <f t="shared" si="1"/>
         <v>DA</v>
       </c>
@@ -9084,17 +9409,17 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>6</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="35">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F9" s="39" t="str">
+      <c r="F9" s="34" t="str">
         <f t="shared" si="1"/>
         <v>DA</v>
       </c>
@@ -9106,17 +9431,17 @@
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <v>2</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>30</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F10" s="39" t="str">
+      <c r="F10" s="34" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
@@ -9128,17 +9453,17 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="20">
-        <v>1</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
         <v>40</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="35">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F11" s="39" t="str">
+      <c r="F11" s="34" t="str">
         <f t="shared" si="1"/>
         <v>DA</v>
       </c>
@@ -9150,17 +9475,17 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>60</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="35">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F12" s="39" t="str">
+      <c r="F12" s="34" t="str">
         <f t="shared" si="1"/>
         <v>NE</v>
       </c>
@@ -9168,97 +9493,97 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="40">
         <v>500</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="38">
         <f>B15-B18</f>
         <v>41.299999999999955</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <f>SUM(E2:E13)</f>
         <v>458.70000000000005</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="29"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <f>AVERAGE(E2:E13)</f>
         <v>41.7</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f>SUMIF($A$2:$A$13,D19,$E$2:$E$13)</f>
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <f>MAX(E2:E13)</f>
         <v>120</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f t="shared" ref="E20:E22" si="2">SUMIF($A$2:$A$13,D20,$E$2:$E$13)</f>
         <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <f>MIN(E2:E13)</f>
         <v>6.8999999999999995</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <f t="shared" si="2"/>
         <v>20.7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -9277,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A13FA-11E4-4D13-BB4D-4FAB19AA34DD}">
   <dimension ref="A1:O281"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9443,8 +9768,8 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -13624,7 +13949,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
         <v>207</v>
       </c>
     </row>
@@ -13652,7 +13977,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>207</v>
       </c>
       <c r="B1" t="s">

--- a/zadaci_prezentacija.xlsx
+++ b/zadaci_prezentacija.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PMF\Documents\Github\ExcelZadaci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F38E6D-3438-4410-BBEF-D0B6D469E3BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBDB820-6B5C-40A4-88E7-33252F42AD07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11136" yWindow="300" windowWidth="11904" windowHeight="11796" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analiza-tjedna potrošnja" sheetId="6" r:id="rId1"/>
@@ -5769,7 +5769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88B5397-0812-4023-85A6-D0431032D459}">
   <dimension ref="A1:O281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -9602,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A13FA-11E4-4D13-BB4D-4FAB19AA34DD}">
   <dimension ref="A1:O281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="C24" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
